--- a/Team-Data/2013-14/1-18-2013-14.xlsx
+++ b/Team-Data/2013-14/1-18-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -780,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -801,22 +868,22 @@
         <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -947,10 +1014,10 @@
         <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
@@ -959,13 +1026,13 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>14</v>
@@ -977,19 +1044,19 @@
         <v>20</v>
       </c>
       <c r="AU3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV3" t="n">
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1135,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN4" t="n">
         <v>8</v>
@@ -1147,19 +1214,19 @@
         <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1174,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.405</v>
+        <v>0.415</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
         <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O5" t="n">
         <v>18.4</v>
@@ -1251,19 +1318,19 @@
         <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="V5" t="n">
         <v>12.8</v>
@@ -1278,16 +1345,16 @@
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1296,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1320,13 +1387,13 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
         <v>26</v>
@@ -1335,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>28</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.487</v>
+        <v>0.474</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J6" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.426</v>
+        <v>0.424</v>
       </c>
       <c r="L6" t="n">
         <v>5.7</v>
       </c>
       <c r="M6" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N6" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O6" t="n">
         <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
         <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
         <v>16.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1517,19 +1584,19 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
@@ -1678,16 +1745,16 @@
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="n">
         <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>20</v>
@@ -1714,7 +1781,7 @@
         <v>22</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.571</v>
+        <v>0.585</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
@@ -1785,40 +1852,40 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N8" t="n">
         <v>0.381</v>
       </c>
       <c r="O8" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P8" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="n">
         <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
@@ -1830,10 +1897,10 @@
         <v>18.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1878,25 +1945,25 @@
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>25</v>
       </c>
       <c r="AT8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1908,7 +1975,7 @@
         <v>30</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -2045,10 +2112,10 @@
         <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2081,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.425</v>
+        <v>0.41</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N10" t="n">
         <v>0.31</v>
@@ -2158,13 +2225,13 @@
         <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.66</v>
+        <v>0.663</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.5</v>
@@ -2179,43 +2246,43 @@
         <v>15.5</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2227,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2248,10 +2315,10 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
         <v>23</v>
@@ -2263,10 +2330,10 @@
         <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
         <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>0.619</v>
+        <v>0.61</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J11" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M11" t="n">
         <v>24.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
         <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.731</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
         <v>11.1</v>
@@ -2355,31 +2422,31 @@
         <v>46</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V11" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="W11" t="n">
         <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
         <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2394,16 +2461,16 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
         <v>2</v>
@@ -2421,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AR11" t="n">
         <v>16</v>
@@ -2430,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2451,13 +2518,13 @@
         <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.643</v>
+        <v>0.634</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J12" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.472</v>
       </c>
       <c r="L12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M12" t="n">
         <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
@@ -2540,16 +2607,16 @@
         <v>20</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
         <v>20.4</v>
@@ -2558,10 +2625,10 @@
         <v>24.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,13 +2673,13 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>25</v>
@@ -2627,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.821</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
@@ -2686,7 +2753,7 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.457</v>
@@ -2698,16 +2765,16 @@
         <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O13" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P13" t="n">
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.791</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
         <v>9.699999999999999</v>
@@ -2716,37 +2783,37 @@
         <v>34.9</v>
       </c>
       <c r="T13" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,16 +2834,16 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2785,10 +2852,10 @@
         <v>16</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -2809,10 +2876,10 @@
         <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -2850,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O14" t="n">
         <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R14" t="n">
         <v>10.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="V14" t="n">
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA14" t="n">
         <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.6</v>
+        <v>106</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,16 +3007,16 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2967,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -2982,16 +3049,16 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW14" t="n">
         <v>7</v>
       </c>
-      <c r="AW14" t="n">
-        <v>8</v>
-      </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ14" t="n">
         <v>21</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3183,7 @@
         <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
@@ -3131,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3146,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>18</v>
@@ -3161,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3304,7 +3371,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3322,13 +3389,13 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>21</v>
@@ -3358,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -3396,19 +3463,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.725</v>
+        <v>0.718</v>
       </c>
       <c r="H17" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I17" t="n">
         <v>38.9</v>
@@ -3426,34 +3493,34 @@
         <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O17" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3462,7 +3529,7 @@
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -3471,10 +3538,10 @@
         <v>104</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3486,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3513,13 +3580,13 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3531,13 +3598,13 @@
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ17" t="n">
         <v>8</v>
@@ -3549,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>0.179</v>
+        <v>0.184</v>
       </c>
       <c r="H18" t="n">
         <v>48.9</v>
       </c>
       <c r="I18" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.421</v>
+        <v>0.419</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
         <v>20.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="O18" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
         <v>19.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.762</v>
+        <v>0.766</v>
       </c>
       <c r="R18" t="n">
         <v>11.3</v>
       </c>
       <c r="S18" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W18" t="n">
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y18" t="n">
         <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
         <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.59999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,13 +3747,13 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,25 +3762,25 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>13</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>24</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3731,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
         <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>0.475</v>
+        <v>0.462</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3778,7 +3845,7 @@
         <v>38.7</v>
       </c>
       <c r="J19" t="n">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="K19" t="n">
         <v>0.435</v>
@@ -3787,61 +3854,61 @@
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N19" t="n">
         <v>0.346</v>
       </c>
       <c r="O19" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.782</v>
+        <v>0.789</v>
       </c>
       <c r="R19" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S19" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="T19" t="n">
-        <v>46.2</v>
+        <v>45.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>14</v>
       </c>
       <c r="W19" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.4</v>
+        <v>106.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3850,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3865,7 +3932,7 @@
         <v>15</v>
       </c>
       <c r="AM19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
         <v>21</v>
@@ -3877,16 +3944,16 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
         <v>7</v>
@@ -3895,7 +3962,7 @@
         <v>8</v>
       </c>
       <c r="AW19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3913,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="BC19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -3942,97 +4009,97 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="J20" t="n">
         <v>85.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M20" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="O20" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
         <v>0.765</v>
       </c>
       <c r="R20" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S20" t="n">
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
         <v>13.7</v>
       </c>
       <c r="W20" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X20" t="n">
         <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA20" t="n">
         <v>20.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
@@ -4044,22 +4111,22 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
@@ -4071,7 +4138,7 @@
         <v>14</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4086,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4275,7 @@
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -4217,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>14</v>
@@ -4241,22 +4308,22 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21" t="n">
         <v>12</v>
@@ -4265,7 +4332,7 @@
         <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
@@ -4396,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
@@ -4408,7 +4475,7 @@
         <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
@@ -4426,19 +4493,19 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -4596,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
         <v>26</v>
@@ -4611,13 +4678,13 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>19</v>
@@ -4632,7 +4699,7 @@
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4641,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="H24" t="n">
         <v>48.9</v>
       </c>
       <c r="I24" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J24" t="n">
-        <v>88.59999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N24" t="n">
-        <v>0.317</v>
+        <v>0.322</v>
       </c>
       <c r="O24" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q24" t="n">
         <v>0.708</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T24" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U24" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V24" t="n">
         <v>17.6</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X24" t="n">
         <v>4.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.3</v>
+        <v>101.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,10 +4827,10 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,13 +4860,13 @@
         <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,10 +4887,10 @@
         <v>16</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4960,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4984,13 +5051,13 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
         <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.775</v>
+        <v>0.769</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J26" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M26" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.827</v>
+        <v>0.823</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.9</v>
+        <v>46.7</v>
       </c>
       <c r="U26" t="n">
         <v>24.6</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>5.6</v>
@@ -5100,31 +5167,31 @@
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>109.6</v>
+        <v>109.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5145,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5157,31 +5224,31 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -5324,7 +5391,7 @@
         <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
@@ -5366,7 +5433,7 @@
         <v>5</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5546,7 @@
         <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5521,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
         <v>19</v>
@@ -5536,7 +5603,7 @@
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -5709,13 +5776,13 @@
         <v>18</v>
       </c>
       <c r="AU29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -5762,67 +5829,67 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="J30" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O30" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P30" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R30" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S30" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
         <v>41.3</v>
       </c>
       <c r="U30" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
         <v>5</v>
@@ -5831,13 +5898,13 @@
         <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.5</v>
+        <v>-6</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,22 +5913,22 @@
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ30" t="n">
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5873,31 +5940,31 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP30" t="n">
         <v>22</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT30" t="n">
         <v>25</v>
       </c>
       <c r="AU30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5915,7 +5982,7 @@
         <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>0.487</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
@@ -5962,10 +6029,10 @@
         <v>37.5</v>
       </c>
       <c r="J31" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
         <v>7.9</v>
@@ -5980,55 +6047,55 @@
         <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.727</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
         <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W31" t="n">
         <v>8.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>3.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
         <v>98.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -6040,7 +6107,7 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>16</v>
@@ -6052,19 +6119,19 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
       </c>
       <c r="AP31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>23</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>27</v>
-      </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
@@ -6073,22 +6140,22 @@
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-18-2013-14</t>
+          <t>2014-01-18</t>
         </is>
       </c>
     </row>
